--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170920_133432/Task2_48hr_48well_discon_170920_133432_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170920_133432/Task2_48hr_48well_discon_170920_133432_wellNames.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="620" windowWidth="14240" windowHeight="13480" tabRatio="500"/>
+    <workbookView xWindow="4380" yWindow="460" windowWidth="17740" windowHeight="13480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>Well</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>L2B5-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -553,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -595,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -612,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -629,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -646,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -663,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -680,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -697,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -714,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -731,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -747,8 +750,11 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -765,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -782,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -799,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -816,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>

--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170920_133432/Task2_48hr_48well_discon_170920_133432_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170920_133432/Task2_48hr_48well_discon_170920_133432_wellNames.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicazellinger/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_170920_133432/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WRShoemaker/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_170920_133432/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Well</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>L2B5-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -556,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -598,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -615,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -632,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -649,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -666,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -683,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -700,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -717,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -734,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -750,11 +747,8 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -771,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -788,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -805,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -822,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
